--- a/Excel/edit.xlsx
+++ b/Excel/edit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -94,76 +94,76 @@
     <t>|&lt; Back to: Getting Started</t>
   </si>
   <si>
-    <t>संपादित करा - ऑडसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>सुधारणे</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>ऑडिओ संपादित करण्यासाठी मुख्य आज्ञा संपादन मेनू आणि प्रभाव मेनू अंतर्गत आहेत.</t>
-  </si>
-  <si>
-    <t>प्ले, रेकॉर्डिंग किंवा विराम देताना प्रभाव आणि संपादने लागू केली जाऊ शकत नाहीत. आपल्‍याला विराम दिल्यास, आपण बर्‍याच मेनू आयटमवर क्लिक करता तेव्हा स्टॉप स्वयंचलितपणे होईल. आपण खेळत असल्यास, रिअल-टाइम पूर्वावलोकन प्रभाव उघडला जाऊ शकतो आणि प्लेबॅक सुरू राहील.</t>
-  </si>
-  <si>
     <t>आपल्याला संपादन करताना समस्या येत असल्यास, संपादनाबद्दल नेहमी विचारले जाणारे प्रश्न पहा जे काही वारंवार विचारलेल्या प्रश्नांची उत्तरे देतात.</t>
   </si>
   <si>
-    <t>संपादन टूलबारमध्ये कट, कॉपी, पेस्ट आणि डिलीट यासारख्या सामान्य संपादनांमध्ये देखील बटणे असतात. बासला चालना देण्यासाठी, खेळपट्टीवर किंवा टेम्पोमध्ये बदल करण्याची किंवा विविध मार्गांनी आवाज काढण्यासारख्या गोष्टी आपल्याला प्रभाव देतात. आपल्याला अनुक्रमे, जनरेटर आणि विश्लेषकांच्या पृष्ठावरील इच्छेनुसार करण्यासाठी योग्य प्रभाव शोधा.</t>
-  </si>
-  <si>
     <t>संपादने</t>
   </si>
   <si>
-    <t>ऑडसिटी प्रत्येक संपादनास ऑडिओ ट्रॅक किंवा ट्रॅकच्या निवडलेल्या प्रदेशात लागू करते. विशिष्ट प्रदेश निवडण्यासाठी, ट्रॅकवर क्लिक करा आणि माऊससह छायांकित क्षेत्र ड्रॅग करा. कोणताही ऑडिओ निवडलेला नसल्यास डीफॉल्टनुसार ऑडसिटी प्रकल्प विंडोमधील सर्व ऑडिओ निवडते.</t>
-  </si>
-  <si>
-    <t>विद्यमान ऑडिओ फाईलचे संपादन करण्याच्या ट्यूटोरियलमध्ये ऑडिओ संपादित कसे करावे याबद्दल अधिक तपशीलवार माहिती आहे.</t>
-  </si>
-  <si>
-    <t>परिणाम</t>
-  </si>
-  <si>
-    <t>प्रभाव लागू करण्यासाठी आपल्याला प्रथम काही ऑडिओ निवडण्याची आवश्यकता आहे, नंतर आपल्याला प्रभाव मेनूमधून आवश्यक असलेल्या प्रभावावर क्लिक करा, नंतर आपल्याला पाहिजे असलेल्या संवाद बॉक्समध्ये कोणतीही पॅरामीटर सेटिंग्ज करा आणि नंतर प्रभाव लागू करण्यासाठी ओके बटण दाबा.</t>
-  </si>
-  <si>
-    <t>लक्षात घ्या की काही प्रभावांमध्ये कोणतेही पॅरामीटर्स नाहीत जे सेट केले जाऊ शकतात आणि आपण त्यांच्यावर प्रभाव मेनूवर क्लिक करताच हे लागू केले जातात; उदाहरण आहेः क्रॉसफेड ​​ट्रॅक.</t>
-  </si>
-  <si>
-    <t>सेटलमेंट केलेल्या पॅरामीटर्सच्या प्रभावांसाठी, डायलॉग बॉक्समध्ये प्रीव्ह्यू बटण आहे जे आपल्याला तात्पुरते लागू केलेल्या प्रभावासह ऑडिओचा एक छोटा नमुना ऐकण्यास सक्षम करते जेणेकरून आपण केलेल्या सेटिंग्ज स्वीकारण्यापूर्वी आपण परिणामाचे ऑडिशन घेऊ शकता.</t>
-  </si>
-  <si>
     <t>काही प्रभावांना विशेष आवश्यकता असते</t>
   </si>
   <si>
-    <t>ऑट डकला चालविण्यासाठी दोन ट्रॅक निवडणे आवश्यक आहे</t>
-  </si>
-  <si>
-    <t>व्होकल रिमूव्हरला एक स्टिरीओ ट्रॅक आवश्यक आहे</t>
-  </si>
-  <si>
     <t>संपादन किंवा प्रभाव परत करत आहे</t>
   </si>
   <si>
-    <t>आपण आपल्या संपादनामुळे किंवा परिणामामुळे नाराज असल्यास आपण ऑडसिटी पूर्ववत करा कमांड वापरू शकता किंवा Ctrl + Z कीबोर्ड शॉर्टकट वापरू शकता.</t>
-  </si>
-  <si>
     <t>प्रभावांसाठी चांगली टीप म्हणजे पूर्वावलोकनास परवानगी देण्यापेक्षा मोठ्या विभागात प्रथम प्रयत्न करून पहा आणि नंतर पूर्ववत करा वापरा.</t>
   </si>
   <si>
     <t>संपादन बिंदू चिन्हांकित करीत आहे</t>
   </si>
   <si>
-    <t>आपण लेबलसह आपल्या ऑडिओमधील संपादन बिंदू किंवा प्रदेश चिन्हांकित करू शकता. प्रोजेक्ट सेव्ह करताना आणि पुन्हा सुरू करताना ती संपादने आठवण्याकरिता उपयोगी ठरतील. एकाधिक फायली म्हणून निर्यात केल्या जाणार्‍या लांब ऑडिओ ट्रॅकमध्ये स्प्लिट्स चिन्हांकित करण्यासाठी देखील ते उपयुक्त ठरू शकतात.</t>
-  </si>
-  <si>
     <t>| &lt;परत: प्रारंभ करणे</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>संपादित करा</t>
+  </si>
+  <si>
+    <t>संपादित करा - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>ध्वनी संपादित करण्यासाठी मुख्य आज्ञा संपादन मेनू आणि प्रभाव मेनू अंतर्गत आहेत.</t>
+  </si>
+  <si>
+    <t>प्ले, ध्वनिमुद्रण किंवा विराम देताना प्रभाव आणि संपादने लागू केली जाऊ शकत नाहीत. आपल्‍याला विराम दिल्यास, आपण बर्‍याच मेनू आयटमवर क्लिक करता तेव्हा स्टॉप स्वयंचलितपणे होईल. आपण खेळत असल्यास, रिअल-टाइम पूर्वावलोकन प्रभाव उघडला जाऊ शकतो आणि प्लेबॅक सुरू राहील.</t>
+  </si>
+  <si>
+    <t>संपादन टूलबारमध्ये कट, नक्कल करा, पेस्ट आणि डिलीट यासारख्या सामान्य संपादनांमध्ये देखील बटणे असतात. बासला चालना देण्यासाठी, खेळपट्टीवर किंवा टेम्पोमध्ये बदल करण्याची किंवा विविध मार्गांनी आवाज काढण्यासारख्या गोष्टी आपल्याला प्रभाव देतात. आपल्याला अनुक्रमे, जनरेटर आणि विश्लेषकांच्या पृष्ठावरील इच्छेनुसार करण्यासाठी योग्य प्रभाव शोधा.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी प्रत्येक संपादनास ध्वनी गीतपट्टा किंवा गीतपट्टाच्या निवडलेल्या प्रदेशात लागू करते. विशिष्ट प्रदेश निवडण्यासाठी, गीतपट्टावर क्लिक करा आणि माऊससह छायांकित क्षेत्र ड्रॅग करा. कोणताही ध्वनी निवडलेला नसल्यास डीफॉल्टनुसार ओड्यासिटी प्रकल्प विंडोमधील सर्व ध्वनी निवडते.</t>
+  </si>
+  <si>
+    <t>विद्यमान ध्वनी धरिकेचे संपादन करण्याच्या शिकवणीमध्ये ध्वनी संपादित कसे करावे याबद्दल अधिक तपशीलवार माहिती आहे.</t>
+  </si>
+  <si>
+    <t>प्रभाव</t>
+  </si>
+  <si>
+    <t>प्रभाव लागू करण्यासाठी आपल्याला प्रथम काही ध्वनी निवडण्याची आवश्यकता आहे, नंतर आपल्याला प्रभाव मेनूमधून आवश्यक असलेल्या प्रभावावर क्लिक करा, नंतर आपल्याला पाहिजे असलेल्या संवाद डब्यामध्ये कोणतीही पॅरामीटर सेटिंग्ज करा आणि नंतर प्रभाव लागू करण्यासाठी ओके बटण दाबा.</t>
+  </si>
+  <si>
+    <t>लक्षात घ्या की काही प्रभावांमध्ये कोणतेही मापदंड नाहीत जे सेट केले जाऊ शकतात आणि आपण त्यांच्यावर प्रभाव मेनूवर क्लिक करताच हे लागू केले जातात; उदाहरण आहेः क्रॉसफेड ​​ट्रॅक.</t>
+  </si>
+  <si>
+    <t>सेटलमेंट केलेल्या पॅरामीटर्सच्या प्रभावांसाठी, डायलॉग बॉक्समध्ये प्रीव्ह्यू बटण आहे जे आपल्याला तात्पुरते लागू केलेल्या प्रभावासह ध्वनीचा एक छोटा नमुना ऐकण्यास सक्षम करते जेणेकरून आपण केलेल्या सेटिंग्ज स्वीकारण्यापूर्वी आपण परिणामाचे ओड्यासिटी घेऊ शकता.</t>
+  </si>
+  <si>
+    <t>स्वयंचलित डकला चालविण्यासाठी दोन गीतपट्टा निवडणे आवश्यक आहे</t>
+  </si>
+  <si>
+    <t>व्होकल रिमूव्हरला एक स्टिरीओ गीतपट्टा आवश्यक आहे</t>
+  </si>
+  <si>
+    <t>आपण आपल्या संपादनामुळे किंवा परिणामामुळे नाराज असल्यास आपण ओड्यासिटी पूर्ववत करा कमांड वापरू शकता किंवा Ctrl + Z कीबोर्ड शॉर्टकट वापरू शकता.</t>
+  </si>
+  <si>
+    <t>आपण लेबलसह आपल्या ध्वनीमधील संपादन बिंदू किंवा प्रदेश चिन्हांकित करू शकता. प्रोजेक्ट सेव्ह करताना आणि पुन्हा सुरू करताना ती संपादने आठवण्याकरिता उपयोगी ठरतील. एकाधिक फायली म्हणून निर्यात केल्या जाणार्‍या लांब ध्वनी गीतपट्टामध्ये स्प्लिट्स चिन्हांकित करण्यासाठी देखील ते उपयुक्त ठरू शकतात.</t>
   </si>
 </sst>
 </file>
@@ -222,11 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,9 +524,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -543,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -554,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -565,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -576,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -587,7 +594,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -597,8 +604,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -609,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -619,8 +626,8 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -631,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -641,8 +648,8 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -653,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -664,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -674,8 +681,8 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -686,7 +693,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -697,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -708,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -719,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -730,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -741,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -752,7 +759,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -763,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -774,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -784,8 +791,8 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -796,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
